--- a/JuegosDeMesa/docs/EstimaciónPropia.xlsx
+++ b/JuegosDeMesa/docs/EstimaciónPropia.xlsx
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7:D7" si="0">B8+B12+B20+B16</f>
+        <f t="shared" ref="B7" si="0">B8+B12+B20+B16</f>
         <v>315</v>
       </c>
       <c r="C7" s="7">
@@ -698,7 +698,10 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9:E11" si="2">(B9+C9*4+D9) / 6</f>
+        <v>14.166666666666666</v>
+      </c>
       <c r="F9"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -767,7 +770,10 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>14.166666666666666</v>
+      </c>
       <c r="F10"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -836,7 +842,10 @@
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>14.166666666666666</v>
+      </c>
       <c r="F11"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -897,11 +906,11 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" ref="B12:C12" si="2">SUM(B13:B15)</f>
+        <f t="shared" ref="B12:C12" si="3">SUM(B13:B15)</f>
         <v>60</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="D12" s="2">
@@ -977,6 +986,10 @@
       <c r="D13">
         <v>45</v>
       </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13:E15" si="4">(B13+C13*4+D13) / 6</f>
+        <v>30.833333333333332</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1042,6 +1055,10 @@
       <c r="D14">
         <v>45</v>
       </c>
+      <c r="E14" s="6">
+        <f t="shared" si="4"/>
+        <v>30.833333333333332</v>
+      </c>
     </row>
     <row r="15" spans="1:59">
       <c r="A15" t="s">
@@ -1056,17 +1073,21 @@
       <c r="D15">
         <v>45</v>
       </c>
+      <c r="E15" s="6">
+        <f t="shared" si="4"/>
+        <v>30.833333333333332</v>
+      </c>
     </row>
     <row r="16" spans="1:59">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" ref="B16:C16" si="3">SUM(B17:B19)</f>
+        <f t="shared" ref="B16:C16" si="5">SUM(B17:B19)</f>
         <v>60</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="D16" s="2">
@@ -1091,6 +1112,10 @@
       <c r="D17">
         <v>45</v>
       </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17:E19" si="6">(B17+C17*4+D17) / 6</f>
+        <v>30.833333333333332</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
@@ -1105,6 +1130,10 @@
       <c r="D18">
         <v>45</v>
       </c>
+      <c r="E18" s="6">
+        <f t="shared" si="6"/>
+        <v>30.833333333333332</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
@@ -1119,17 +1148,21 @@
       <c r="D19">
         <v>45</v>
       </c>
+      <c r="E19" s="6">
+        <f t="shared" si="6"/>
+        <v>30.833333333333332</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" ref="B20:C20" si="4">SUM(B21:B23)</f>
+        <f t="shared" ref="B20:C20" si="7">SUM(B21:B23)</f>
         <v>180</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="D20" s="2">
@@ -1154,6 +1187,10 @@
       <c r="D21">
         <v>140</v>
       </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:E23" si="8">(B21+C21*4+D21) / 6</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
@@ -1168,6 +1205,10 @@
       <c r="D22">
         <v>140</v>
       </c>
+      <c r="E22" s="6">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -1181,6 +1222,10 @@
       </c>
       <c r="D23">
         <v>140</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/JuegosDeMesa/docs/EstimaciónPropia.xlsx
+++ b/JuegosDeMesa/docs/EstimaciónPropia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Tarea</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Clase Producto</t>
+  </si>
+  <si>
+    <t>Montaje de la infraestructura</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG23"/>
+  <dimension ref="A1:BG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -478,7 +481,7 @@
     <row r="2" spans="1:59">
       <c r="A2" s="3">
         <f>H7+H3*H1+H4*H1</f>
-        <v>900</v>
+        <v>24500</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -534,32 +537,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7" si="0">B8+B12+B20+B16</f>
-        <v>315</v>
+        <f t="shared" ref="B7:D7" si="0">B8+B12+B20+B16+B24</f>
+        <v>360</v>
       </c>
       <c r="C7" s="7">
-        <f>C8+C12+C20+C16</f>
-        <v>525</v>
+        <f t="shared" si="0"/>
+        <v>585</v>
       </c>
       <c r="D7" s="7">
-        <f>D8+D12+D20+D16</f>
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>825</v>
       </c>
       <c r="E7" s="7">
-        <f>E8+E12+E20+E16</f>
-        <v>527.5</v>
+        <f>E8+E12+E20+E16+E24</f>
+        <v>587.5</v>
       </c>
       <c r="F7" s="7">
-        <f>E7*1.25*H2/60</f>
-        <v>14.286458333333334</v>
+        <f>E7*1.25*H2</f>
+        <v>954.6875</v>
       </c>
       <c r="G7" s="1">
         <f>ROUNDUP(F7/8,0)</f>
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="H7" s="4">
         <f>G7*8*H1</f>
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1188,7 +1191,7 @@
         <v>140</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:E23" si="8">(B21+C21*4+D21) / 6</f>
+        <f t="shared" ref="E21:E24" si="8">(B21+C21*4+D21) / 6</f>
         <v>100</v>
       </c>
     </row>
@@ -1226,6 +1229,24 @@
       <c r="E23" s="6">
         <f t="shared" si="8"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>75</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
